--- a/DB/데이터베이스 설계/gym.xlsx
+++ b/DB/데이터베이스 설계/gym.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="81">
   <si>
     <t>회원</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -447,10 +447,6 @@
   </si>
   <si>
     <t>default - 0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_course_no</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -898,7 +894,7 @@
   <dimension ref="B2:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -913,7 +909,7 @@
     <col min="10" max="10" width="22.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>0</v>
       </c>
@@ -921,7 +917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>34</v>
       </c>
@@ -943,11 +939,8 @@
       <c r="H3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>29</v>
       </c>
@@ -969,11 +962,8 @@
       <c r="H4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -981,7 +971,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
@@ -992,7 +982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
@@ -1003,7 +993,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -1011,7 +1001,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
@@ -1031,7 +1021,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
         <v>20</v>
       </c>
@@ -1216,7 +1206,7 @@
         <v>63</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
@@ -1269,7 +1259,7 @@
         <v>68</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
